--- a/241108_MSR_MOP_CTM BOM 정리_JDS.xlsx
+++ b/241108_MSR_MOP_CTM BOM 정리_JDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC9EB48C-3E48-C74C-AABA-811539556A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF7AE0-43D6-8844-A8BA-B5CC728850A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="900" windowWidth="33900" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="249">
   <si>
     <t>Remarks</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1123,6 +1123,10 @@
   </si>
   <si>
     <t>추가발주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdsfdsa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2834,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA48" sqref="AA48"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="16"/>
@@ -5607,6 +5611,9 @@
     </row>
     <row r="102" spans="3:9">
       <c r="C102" s="207"/>
+      <c r="D102" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="E102" s="208"/>
     </row>
     <row r="103" spans="3:9">
